--- a/Examples/polygen/polygen_model.xlsx
+++ b/Examples/polygen/polygen_model.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Termoeconomia\ExIOLab\Examples\polygen\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Termoeconomia\TaesLab\Examples\polygen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AC61B86-B9F5-46FC-8C6C-6D391548B42B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E286057-E64C-440E-8A2E-FA0C020B1FB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="375" windowWidth="20475" windowHeight="12525" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PhysicalDiagram" sheetId="5" r:id="rId1"/>
@@ -18,8 +18,9 @@
     <sheet name="Flows" sheetId="1" r:id="rId3"/>
     <sheet name="Processes" sheetId="2" r:id="rId4"/>
     <sheet name="Exergy" sheetId="3" r:id="rId5"/>
-    <sheet name="ResourcesCost" sheetId="7" r:id="rId6"/>
-    <sheet name="WasteDefinition" sheetId="8" r:id="rId7"/>
+    <sheet name="Format" sheetId="10" r:id="rId6"/>
+    <sheet name="ResourcesCost" sheetId="7" r:id="rId7"/>
+    <sheet name="WasteDefinition" sheetId="8" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="cgam_flows" localSheetId="2">Flows!$A$1:$B$14</definedName>
@@ -27,7 +28,7 @@
     <definedName name="cgam_sample" localSheetId="4">Exergy!$A$1:$B$14</definedName>
     <definedName name="polygen_flows" localSheetId="2">Flows!#REF!</definedName>
     <definedName name="polygen_processes_1" localSheetId="3">Processes!$G$2:$K$10</definedName>
-    <definedName name="tgas_c0" localSheetId="5">ResourcesCost!$A$1:$C$2</definedName>
+    <definedName name="tgas_c0" localSheetId="6">ResourcesCost!$A$1:$C$2</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -91,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="83">
   <si>
     <t>key</t>
   </si>
@@ -310,6 +311,36 @@
   </si>
   <si>
     <t>Base</t>
+  </si>
+  <si>
+    <t>width</t>
+  </si>
+  <si>
+    <t>precision</t>
+  </si>
+  <si>
+    <t>unit</t>
+  </si>
+  <si>
+    <t>(kW)</t>
+  </si>
+  <si>
+    <t>EXERGY_COST</t>
+  </si>
+  <si>
+    <t>EXERGY_UNIT_COST</t>
+  </si>
+  <si>
+    <t>(J/J)</t>
+  </si>
+  <si>
+    <t>GENERALIZED_COST</t>
+  </si>
+  <si>
+    <t>GENERALIZED_UNIT_COST</t>
+  </si>
+  <si>
+    <t>DIAGNOSIS</t>
   </si>
 </sst>
 </file>
@@ -5498,11 +5529,11 @@
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="cgam_processes" connectionId="2" xr16:uid="{00000000-0016-0000-0300-000002000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="polygen_processes_1" connectionId="4" xr16:uid="{00000000-0016-0000-0300-000001000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="polygen_processes_1" connectionId="4" xr16:uid="{00000000-0016-0000-0300-000001000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="cgam_processes" connectionId="2" xr16:uid="{00000000-0016-0000-0300-000002000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6306,7 +6337,7 @@
   <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6488,11 +6519,128 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AF9951D-5B3C-4252-B717-F2ED3D297E2F}">
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.85546875" customWidth="1"/>
+    <col min="2" max="4" width="9" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2">
+        <v>10</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B3">
+        <v>10</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B4">
+        <v>10</v>
+      </c>
+      <c r="C4">
+        <v>4</v>
+      </c>
+      <c r="D4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B5">
+        <v>10</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>81</v>
+      </c>
+      <c r="B6">
+        <v>10</v>
+      </c>
+      <c r="C6">
+        <v>4</v>
+      </c>
+      <c r="D6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>82</v>
+      </c>
+      <c r="B7">
+        <v>10</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="D7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr codeName="Hoja7"/>
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -6550,7 +6698,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr codeName="Hoja9"/>
   <dimension ref="A1:C2"/>

--- a/Examples/polygen/polygen_model.xlsx
+++ b/Examples/polygen/polygen_model.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Termoeconomia\TaesLab\Examples\polygen\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ctorr\Documents\Proyectos\TaesLab\Examples\polygen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E286057-E64C-440E-8A2E-FA0C020B1FB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14E9B589-5D26-439A-A1CB-6910E3D0A385}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="375" windowWidth="20475" windowHeight="12525" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="615" yWindow="780" windowWidth="25740" windowHeight="14700" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PhysicalDiagram" sheetId="5" r:id="rId1"/>
@@ -229,9 +229,6 @@
     <t>Combustor</t>
   </si>
   <si>
-    <t>B5-B3</t>
-  </si>
-  <si>
     <t>REGE</t>
   </si>
   <si>
@@ -250,9 +247,6 @@
     <t>Compressor</t>
   </si>
   <si>
-    <t>B2-B1</t>
-  </si>
-  <si>
     <t>TURB</t>
   </si>
   <si>
@@ -341,6 +335,12 @@
   </si>
   <si>
     <t>DIAGNOSIS</t>
+  </si>
+  <si>
+    <t>B7+B1</t>
+  </si>
+  <si>
+    <t>B4+B3</t>
   </si>
 </sst>
 </file>
@@ -5851,7 +5851,7 @@
         <v>15</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -5865,7 +5865,7 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -5879,7 +5879,7 @@
         <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -6125,8 +6125,8 @@
   <sheetPr codeName="Hoja4"/>
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6169,10 +6169,10 @@
         <v>44</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>82</v>
       </c>
       <c r="D2" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
@@ -6180,16 +6180,16 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" t="s">
         <v>46</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>47</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>48</v>
-      </c>
-      <c r="D3" t="s">
-        <v>49</v>
       </c>
       <c r="E3" t="s">
         <v>8</v>
@@ -6197,16 +6197,16 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" t="s">
         <v>50</v>
       </c>
-      <c r="B4" t="s">
-        <v>51</v>
-      </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>81</v>
       </c>
       <c r="D4" t="s">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="E4" t="s">
         <v>8</v>
@@ -6214,16 +6214,16 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" t="s">
         <v>53</v>
       </c>
-      <c r="B5" t="s">
+      <c r="D5" t="s">
         <v>54</v>
-      </c>
-      <c r="C5" t="s">
-        <v>55</v>
-      </c>
-      <c r="D5" t="s">
-        <v>56</v>
       </c>
       <c r="E5" t="s">
         <v>8</v>
@@ -6231,16 +6231,16 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C6" t="s">
         <v>31</v>
       </c>
       <c r="D6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E6" t="s">
         <v>8</v>
@@ -6248,13 +6248,13 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" t="s">
         <v>59</v>
-      </c>
-      <c r="B7" t="s">
-        <v>60</v>
-      </c>
-      <c r="C7" t="s">
-        <v>61</v>
       </c>
       <c r="D7" t="s">
         <v>38</v>
@@ -6265,16 +6265,16 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B8" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C8" t="s">
         <v>36</v>
       </c>
       <c r="D8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E8" t="s">
         <v>8</v>
@@ -6282,13 +6282,13 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B9" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C9" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D9" t="s">
         <v>39</v>
@@ -6299,10 +6299,10 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B10" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C10" t="s">
         <v>40</v>
@@ -6522,7 +6522,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AF9951D-5B3C-4252-B717-F2ED3D297E2F}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -6537,13 +6537,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -6557,12 +6557,12 @@
         <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B3">
         <v>10</v>
@@ -6571,12 +6571,12 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B4">
         <v>10</v>
@@ -6585,12 +6585,12 @@
         <v>4</v>
       </c>
       <c r="D4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B5">
         <v>10</v>
@@ -6599,12 +6599,12 @@
         <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B6">
         <v>10</v>
@@ -6613,12 +6613,12 @@
         <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B7">
         <v>10</v>
@@ -6627,7 +6627,7 @@
         <v>3</v>
       </c>
       <c r="D7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -6657,7 +6657,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -6665,7 +6665,7 @@
         <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C2">
         <v>1.284</v>
@@ -6676,7 +6676,7 @@
         <v>31</v>
       </c>
       <c r="B3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C3">
         <v>1.4750000000000001</v>
@@ -6687,7 +6687,7 @@
         <v>36</v>
       </c>
       <c r="B4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C4">
         <v>1.3460000000000001</v>

--- a/Examples/polygen/polygen_model.xlsx
+++ b/Examples/polygen/polygen_model.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ctorr\Documents\Proyectos\TaesLab\Examples\polygen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14E9B589-5D26-439A-A1CB-6910E3D0A385}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD808390-DEE6-49D2-99E8-69B17E2776D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="615" yWindow="780" windowWidth="25740" windowHeight="14700" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1965" yWindow="435" windowWidth="25740" windowHeight="14700" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PhysicalDiagram" sheetId="5" r:id="rId1"/>
@@ -24,7 +24,7 @@
   </sheets>
   <definedNames>
     <definedName name="cgam_flows" localSheetId="2">Flows!$A$1:$B$14</definedName>
-    <definedName name="cgam_processes" localSheetId="3">Processes!$A$1:$E$1</definedName>
+    <definedName name="cgam_processes" localSheetId="3">Processes!$A$1:$D$1</definedName>
     <definedName name="cgam_sample" localSheetId="4">Exergy!$A$1:$B$14</definedName>
     <definedName name="polygen_flows" localSheetId="2">Flows!#REF!</definedName>
     <definedName name="polygen_processes_1" localSheetId="3">Processes!$G$2:$K$10</definedName>
@@ -5529,11 +5529,11 @@
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="polygen_processes_1" connectionId="4" xr16:uid="{00000000-0016-0000-0300-000001000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="cgam_processes" connectionId="2" xr16:uid="{00000000-0016-0000-0300-000002000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="cgam_processes" connectionId="2" xr16:uid="{00000000-0016-0000-0300-000002000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="polygen_processes_1" connectionId="4" xr16:uid="{00000000-0016-0000-0300-000001000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6126,16 +6126,16 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.85546875" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" customWidth="1"/>
     <col min="3" max="3" width="13.5703125" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" customWidth="1"/>
+    <col min="5" max="5" width="20.140625" customWidth="1"/>
     <col min="6" max="6" width="10.140625" customWidth="1"/>
     <col min="7" max="7" width="6.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.85546875" bestFit="1" customWidth="1"/>
@@ -6149,7 +6149,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>6</v>
@@ -6158,7 +6158,7 @@
         <v>7</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -6166,7 +6166,7 @@
         <v>43</v>
       </c>
       <c r="B2" t="s">
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
         <v>82</v>
@@ -6175,7 +6175,7 @@
         <v>26</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -6183,7 +6183,7 @@
         <v>45</v>
       </c>
       <c r="B3" t="s">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
         <v>47</v>
@@ -6192,7 +6192,7 @@
         <v>48</v>
       </c>
       <c r="E3" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -6200,7 +6200,7 @@
         <v>49</v>
       </c>
       <c r="B4" t="s">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
         <v>81</v>
@@ -6209,7 +6209,7 @@
         <v>23</v>
       </c>
       <c r="E4" t="s">
-        <v>8</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -6217,7 +6217,7 @@
         <v>51</v>
       </c>
       <c r="B5" t="s">
-        <v>52</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
         <v>53</v>
@@ -6226,7 +6226,7 @@
         <v>54</v>
       </c>
       <c r="E5" t="s">
-        <v>8</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -6234,7 +6234,7 @@
         <v>55</v>
       </c>
       <c r="B6" t="s">
-        <v>55</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
         <v>31</v>
@@ -6243,7 +6243,7 @@
         <v>56</v>
       </c>
       <c r="E6" t="s">
-        <v>8</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -6251,7 +6251,7 @@
         <v>57</v>
       </c>
       <c r="B7" t="s">
-        <v>58</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
         <v>59</v>
@@ -6260,7 +6260,7 @@
         <v>38</v>
       </c>
       <c r="E7" t="s">
-        <v>8</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -6268,7 +6268,7 @@
         <v>60</v>
       </c>
       <c r="B8" t="s">
-        <v>61</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
         <v>36</v>
@@ -6277,7 +6277,7 @@
         <v>62</v>
       </c>
       <c r="E8" t="s">
-        <v>8</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -6285,7 +6285,7 @@
         <v>63</v>
       </c>
       <c r="B9" t="s">
-        <v>63</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
         <v>64</v>
@@ -6294,7 +6294,7 @@
         <v>39</v>
       </c>
       <c r="E9" t="s">
-        <v>8</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -6302,7 +6302,7 @@
         <v>65</v>
       </c>
       <c r="B10" t="s">
-        <v>66</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
         <v>40</v>
@@ -6311,7 +6311,7 @@
         <v>41</v>
       </c>
       <c r="E10" t="s">
-        <v>9</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -6323,7 +6323,7 @@
           <x14:formula1>
             <xm:f>Validate!$B$2:$B$3</xm:f>
           </x14:formula1>
-          <xm:sqref>E2:E10</xm:sqref>
+          <xm:sqref>B2:B10</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
